--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1430597.488248138</v>
+        <v>1506127.157912943</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.8229012276257</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>307.9895902233671</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.51651982872626</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>14.52687838733165</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>22.31124795984813</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>206.3545628809993</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>87.02510801445133</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>80.88877949312982</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>155.6073426821515</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>70.78369009231541</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>94.69402002676134</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>38.53074475532055</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>27.26009267756244</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.3514698018592</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>87.90024861273463</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385003</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>17.96449086431781</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>18.99136019816792</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051966</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2175,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>79.47420870022067</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>14.73664328357776</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7644211441623793</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,16 +2532,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151926</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2649,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>146.5343127759335</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>166.8112548515767</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151927</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>66.14085215535538</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151927</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>155.8385935972304</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>101.1426547140132</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>41.92656778835364</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>30.43484953081554</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.80469552384545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750046</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>110.1707519847953</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>107.2994477068551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>107.2994477068551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>120.1212846776637</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>120.1212846776637</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>120.1212846776637</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2674.612476917366</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2674.612476917366</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2420.850691555458</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2089.787804211887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>1737.019148941773</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.553390680693</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4753,22 +4755,22 @@
         <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>617.0062271882081</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>617.0062271882081</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>617.0062271882081</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>470.722514162039</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>470.722514162039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.353113282533</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1579.326057337315</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1193.537804739071</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>782.5518999494632</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>364.58809184765</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2625.650414157298</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2625.650414157298</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2294.587526813727</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1941.818871543613</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1568.353113282533</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.353113282533</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4896,28 +4898,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>195.250031532787</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>195.250031532787</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>195.250031532787</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>195.250031532787</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>195.250031532787</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>195.250031532787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>195.250031532787</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>659.7921208627627</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>432.4839335313644</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>432.4839335313644</v>
+        <v>195.250031532787</v>
       </c>
       <c r="V10" t="n">
-        <v>432.4839335313644</v>
+        <v>195.250031532787</v>
       </c>
       <c r="W10" t="n">
-        <v>432.4839335313644</v>
+        <v>195.250031532787</v>
       </c>
       <c r="X10" t="n">
-        <v>432.4839335313644</v>
+        <v>195.250031532787</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>195.250031532787</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298184</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1271.460813324402</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>982.3321745379599</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V13" t="n">
-        <v>727.647686332073</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229249</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="17">
@@ -5504,43 +5506,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514064</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5580,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>692.3809108364826</v>
+        <v>841.790738378246</v>
       </c>
       <c r="C19" t="n">
-        <v>692.3809108364826</v>
+        <v>672.8545554503391</v>
       </c>
       <c r="D19" t="n">
-        <v>692.3809108364826</v>
+        <v>522.7379160380034</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>374.8248224556103</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>227.9348749576999</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>227.9348749576999</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344999</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X19" t="n">
-        <v>692.3809108364826</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="Y19" t="n">
-        <v>692.3809108364826</v>
+        <v>1023.439203208486</v>
       </c>
     </row>
     <row r="20">
@@ -5747,37 +5749,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5820,37 +5822,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3840174432676</v>
+        <v>579.0685056491618</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>410.1323227212549</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>260.0156833089192</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>112.102589726526</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839242022</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688138</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799431</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947126</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974674</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980071</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585754</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.91627055791</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.91627055791</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.91627055791</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.91627055791</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.91627055791</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>1498.91627055791</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>1209.499100520949</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>981.5095496229317</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735073</v>
+        <v>760.7169704794015</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6011,28 +6013,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6057,37 +6059,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298184</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4036.945405494733</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>4036.945405494733</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>4036.945405494733</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.173262924872</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426962</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746782</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294725</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916673</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380583</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625194</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636323</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403506</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431054</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436451</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042134</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576116</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491669</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281175</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494733</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>4036.945405494733</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>4036.945405494733</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>4036.945405494733</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>4036.945405494733</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262065</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>841.7907383782456</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>672.8545554503387</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>672.8545554503387</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>524.9414618679456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>524.9414618679456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>356.7661401877662</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W28" t="n">
-        <v>1244.231782352015</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X28" t="n">
-        <v>1244.231782352015</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y28" t="n">
-        <v>1023.439203208485</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6692,34 +6694,34 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P33" t="n">
-        <v>4595.498205900219</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4458.413529040523</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4289.477346112616</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>4139.36070670028</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3991.447613117887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3844.557665619977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3676.382343939797</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3525.964335487741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4860.854573014292</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4860.854573014292</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4640.061993870762</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6916,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>4356.2492313496</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>4187.313048421694</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W37" t="n">
-        <v>1341.503549752619</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.513998854602</v>
+        <v>4758.69027532337</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>4537.89769617984</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7153,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,34 +7186,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.130185042679</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1468.173998304553</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1268.253988220106</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1044.468573009611</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>755.3399342231696</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>755.3399342231696</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>465.9227641862091</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X40" t="n">
-        <v>465.9227641862091</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y40" t="n">
-        <v>245.130185042679</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7430,7 +7432,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2471.066311049163</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2881.956579893676</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1029.666285013068</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1298.996260473455</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W43" t="n">
-        <v>1298.996260473455</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X43" t="n">
-        <v>1298.996260473455</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y43" t="n">
-        <v>1211.314749843308</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7670,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3925.661817631305</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C46" t="n">
-        <v>3925.661817631305</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D46" t="n">
-        <v>3925.661817631305</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E46" t="n">
-        <v>3777.748724048912</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048912</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368732</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N46" t="n">
         <v>4411.546387431056</v>
@@ -7828,28 +7830,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>4520.375241843982</v>
       </c>
       <c r="U46" t="n">
-        <v>4036.945405494735</v>
+        <v>4231.24660305754</v>
       </c>
       <c r="V46" t="n">
-        <v>3925.661817631305</v>
+        <v>3976.562114851653</v>
       </c>
       <c r="W46" t="n">
-        <v>3925.661817631305</v>
+        <v>3687.144944814692</v>
       </c>
       <c r="X46" t="n">
-        <v>3925.661817631305</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y46" t="n">
-        <v>3925.661817631305</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
   </sheetData>
@@ -8234,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360587</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711629</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928308</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814691</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208051</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>277.671796620805</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119812</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>180.0237016735856</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>277.671796620805</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659902</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q33" t="n">
-        <v>169.2863157167174</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627462</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.03744927814591</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>194.2874683808268</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.358185587178</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>130.6844047393602</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>128.4694717822514</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>129.9224681693682</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>87.77261239840716</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>130.6844047393535</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24184,7 +24186,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>145.6695415024068</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>2.379515591602626</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>119.4260975470006</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338466</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>44.27839330891661</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338466</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>130.6844047393606</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>124.5670006750239</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>124.5670006750239</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>79.52950287297725</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,16 +25845,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>131.7799578282493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.3938331833846</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>141.9668913390327</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>935011.5272238886</v>
+        <v>935011.527223889</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238887</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238887</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="15">
@@ -26314,19 +26316,19 @@
         <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185699</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852503</v>
@@ -26335,25 +26337,25 @@
         <v>469234.8716852503</v>
       </c>
       <c r="J2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="K2" t="n">
+        <v>469234.8716852501</v>
+      </c>
+      <c r="L2" t="n">
         <v>469234.8716852502</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="O2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="M2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>469234.8716852503</v>
-      </c>
-      <c r="O2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469234.8716852504</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338368</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773391</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773391</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773391</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26475,22 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.582216512</v>
+        <v>-363550.5822165121</v>
       </c>
       <c r="C6" t="n">
-        <v>226417.2969980324</v>
+        <v>226417.2969980326</v>
       </c>
       <c r="D6" t="n">
-        <v>226417.2969980323</v>
+        <v>226417.2969980325</v>
       </c>
       <c r="E6" t="n">
-        <v>-184344.9742580965</v>
+        <v>-184344.9742580967</v>
       </c>
       <c r="F6" t="n">
-        <v>340815.0622187997</v>
+        <v>340815.0622187998</v>
       </c>
       <c r="G6" t="n">
         <v>340815.0622187998</v>
       </c>
       <c r="H6" t="n">
+        <v>340815.0622187995</v>
+      </c>
+      <c r="I6" t="n">
+        <v>340815.0622187997</v>
+      </c>
+      <c r="J6" t="n">
+        <v>164391.8430262069</v>
+      </c>
+      <c r="K6" t="n">
+        <v>340815.0622187996</v>
+      </c>
+      <c r="L6" t="n">
+        <v>340815.0622187996</v>
+      </c>
+      <c r="M6" t="n">
+        <v>206014.0469849631</v>
+      </c>
+      <c r="N6" t="n">
+        <v>340815.0622188</v>
+      </c>
+      <c r="O6" t="n">
         <v>340815.0622187998</v>
       </c>
-      <c r="I6" t="n">
-        <v>340815.0622187998</v>
-      </c>
-      <c r="J6" t="n">
-        <v>164391.8430262066</v>
-      </c>
-      <c r="K6" t="n">
-        <v>340815.0622188</v>
-      </c>
-      <c r="L6" t="n">
-        <v>340815.0622187998</v>
-      </c>
-      <c r="M6" t="n">
-        <v>206014.0469849627</v>
-      </c>
-      <c r="N6" t="n">
-        <v>340815.0622187997</v>
-      </c>
-      <c r="O6" t="n">
-        <v>340815.0622188</v>
-      </c>
       <c r="P6" t="n">
-        <v>340815.0622187999</v>
+        <v>340815.0622187995</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
     </row>
     <row r="4">
@@ -26793,22 +26795,22 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>99.10841501723556</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>61.74151045510195</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.315460353211</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27591,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>204.0577749647631</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>152.1044648491234</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>179.8833757750543</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>92.80687216748596</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>144.1463259649545</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>168.3154300822057</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>145.6646302653424</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>40.27160176557689</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>173.6147941946983</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28980,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.41004286687045e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34954,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768298</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303311</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M20" t="n">
-        <v>805.32965022211</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.76521155233</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.507770165572</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>588.0961736712716</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081092</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M27" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586599</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>610.8663700188182</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502023</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q33" t="n">
-        <v>257.2993485017915</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095148</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330526</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37874,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1506127.157912943</v>
+        <v>1499110.143021233</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>194.7001067806289</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>307.9895902233671</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>206.0978190620145</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.52687838733165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>142.7973342657374</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>206.3545628809993</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.02510801445133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>155.6073426821515</v>
+        <v>148.3681250208876</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1183,25 +1183,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>94.69402002676134</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>226.9736586744965</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>70.12936392636001</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.3514698018592</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.90024861273463</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>18.99136019816792</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>124.6501923679393</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>14.73664328357776</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>61.75790661595705</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151926</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>171.5461099424051</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>166.8112548515767</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151927</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>207.2402939425158</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>43.04265191600489</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151927</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>101.1426547140132</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>198.9975240274615</v>
       </c>
     </row>
     <row r="38">
@@ -3556,10 +3556,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>41.92656778835364</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>268.6180137163284</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>31.27200878560247</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>114.159283726037</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750046</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2050.641472309061</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1719.57858496549</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1719.57858496549</v>
       </c>
       <c r="X2" t="n">
-        <v>2386.048494833003</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>1995.909162857192</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>713.4553696737762</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C4" t="n">
-        <v>544.5191867458693</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D4" t="n">
-        <v>394.4025473335336</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="Y4" t="n">
-        <v>713.4553696737762</v>
+        <v>519.9493689922781</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1722.185086336931</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1353.22256939652</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>994.9568707897693</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>609.168618191525</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>198.1827134019174</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748109</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748109</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y5" t="n">
-        <v>2135.941483343059</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,37 +4658,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.8183646524922</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>382.8183646524922</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>470.722514162039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.722514162039</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.591755944065</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="C8" t="n">
-        <v>1937.591755944065</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="D8" t="n">
-        <v>1579.326057337315</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="E8" t="n">
-        <v>1193.537804739071</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="F8" t="n">
-        <v>782.5518999494632</v>
+        <v>371.1991548370755</v>
       </c>
       <c r="G8" t="n">
-        <v>364.58809184765</v>
+        <v>357.2757507756664</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.591755944065</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>195.250031532787</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>195.250031532787</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>195.250031532787</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>195.250031532787</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>195.250031532787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>195.250031532787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>195.250031532787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>195.250031532787</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>195.250031532787</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>195.250031532787</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X10" t="n">
-        <v>195.250031532787</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y10" t="n">
-        <v>195.250031532787</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5065,28 +5065,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1196.088769018223</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1503.408902298184</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.271529962217</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>874.927113122792</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324578</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954972</v>
+        <v>874.927113122792</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028589</v>
+        <v>874.927113122792</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>874.927113122792</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,31 +5293,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557903</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5095496229249</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5539,10 +5539,10 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>841.790738378246</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>672.8545554503391</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>522.7379160380034</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>374.8248224556103</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>227.9348749576999</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>227.9348749576999</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.231782352016</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1244.231782352016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>1023.439203208486</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,43 +5731,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5776,7 +5776,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
@@ -5785,13 +5785,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,7 +5819,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571612</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636255</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526318</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.0685056491618</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1323227212549</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="D22" t="n">
-        <v>260.0156833089192</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>112.102589726526</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839242022</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688138</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799431</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947126</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974674</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980071</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585754</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.91627055791</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.91627055791</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.91627055791</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.91627055791</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.91627055791</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.91627055791</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520949</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229317</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7169704794015</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514088</v>
@@ -5998,10 +5998,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,7 +6056,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298184</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1436.5345467034</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1147.405907916959</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028589</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6253,10 +6253,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636255</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526318</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262065</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6384,16 +6384,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.921157035281</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1019.424940013486</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>764.7404518075996</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>475.3232817706389</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726216</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>757.7241344124302</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="32">
@@ -6691,34 +6691,34 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207829</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526318</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>604.4337416462789</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>435.497558718372</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>435.497558718372</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>287.5844651359789</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>140.6945176380686</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6858,16 +6858,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4356.2492313496</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C37" t="n">
-        <v>4187.313048421694</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D37" t="n">
-        <v>4037.196409009357</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E37" t="n">
-        <v>3889.283315426964</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W37" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X37" t="n">
-        <v>4758.69027532337</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y37" t="n">
-        <v>4537.89769617984</v>
+        <v>874.2032452352215</v>
       </c>
     </row>
     <row r="38">
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.4856756861153</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C40" t="n">
-        <v>699.5494927582084</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>549.4328533458727</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>401.5197597634796</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1116.509840133537</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="X40" t="n">
-        <v>1270.926719659885</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.134140516355</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.2699138005285</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1336.117678709276</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>1046.700508672316</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>818.7109577742983</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.9183786307682</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7666,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636253</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916675</v>
+        <v>677.7114078547892</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916675</v>
+        <v>677.7114078547892</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916675</v>
+        <v>527.5947684424534</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916675</v>
+        <v>527.5947684424534</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916675</v>
+        <v>380.704820944543</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>212.5294992643636</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>4520.375241843982</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>4231.24660305754</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>3976.562114851653</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W46" t="n">
-        <v>3687.144944814692</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X46" t="n">
-        <v>3459.155393916675</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="Y46" t="n">
-        <v>3459.155393916675</v>
+        <v>677.7114078547892</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>277.6717966208054</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208051</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>277.671796620805</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119812</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>116.9087390531963</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735856</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445211</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298005</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>277.671796620805</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.314990659902</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776738</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>97.11745717226782</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.358185587178</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23706,13 +23706,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.6844047393602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>129.9224681693682</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>23.96528065027302</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>130.6844047393535</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24183,7 +24183,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>159.7896544424322</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338477</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>8.285870239532215</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>119.4260975470006</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338466</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>79.28270439407524</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>123.4509165473727</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338466</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>124.5670006750239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>19.58712932463325</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>124.5670006750239</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,10 +25605,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>17.61933868224895</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>117.3434642326099</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25842,16 +25842,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>34.75454464149912</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.3938331833846</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>935011.527223889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935011.5272238887</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>935011.5272238887</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="16">
@@ -26316,34 +26316,34 @@
         <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852501</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852502</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852505</v>
@@ -26352,10 +26352,10 @@
         <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338368</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
-      <c r="C4" t="n">
-        <v>183348.6868571279</v>
-      </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773391</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773391</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773391</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773396</v>
@@ -26456,10 +26456,10 @@
         <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="P4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26472,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.5822165121</v>
+        <v>-363550.5822165119</v>
       </c>
       <c r="C6" t="n">
-        <v>226417.2969980326</v>
+        <v>226417.2969980323</v>
       </c>
       <c r="D6" t="n">
-        <v>226417.2969980325</v>
+        <v>226417.2969980323</v>
       </c>
       <c r="E6" t="n">
-        <v>-184344.9742580967</v>
+        <v>-185319.565517818</v>
       </c>
       <c r="F6" t="n">
-        <v>340815.0622187998</v>
+        <v>339840.4709590782</v>
       </c>
       <c r="G6" t="n">
-        <v>340815.0622187998</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="H6" t="n">
-        <v>340815.0622187995</v>
+        <v>339840.4709590781</v>
       </c>
       <c r="I6" t="n">
-        <v>340815.0622187997</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="J6" t="n">
-        <v>164391.8430262069</v>
+        <v>163417.2517664853</v>
       </c>
       <c r="K6" t="n">
-        <v>340815.0622187996</v>
+        <v>339840.4709590782</v>
       </c>
       <c r="L6" t="n">
-        <v>340815.0622187996</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="M6" t="n">
-        <v>206014.0469849631</v>
+        <v>205039.4557252411</v>
       </c>
       <c r="N6" t="n">
-        <v>340815.0622188</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="O6" t="n">
-        <v>340815.0622187998</v>
+        <v>339840.4709590783</v>
       </c>
       <c r="P6" t="n">
-        <v>340815.0622187995</v>
+        <v>339840.4709590783</v>
       </c>
     </row>
   </sheetData>
@@ -26737,37 +26737,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,25 +26792,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>56.52406072766036</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>61.74151045510195</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>19.61183632702262</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0577749647631</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>270.9868357550575</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>179.8833757750543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.80687216748596</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>168.3154300822057</v>
+        <v>175.5546477434695</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>40.27160176557689</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>59.54933966209452</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.41004286687045e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>526.9295015768298</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>274.915516674262</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.040675600518</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980132</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.76521155233</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686871</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.507770165572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>588.0961736712716</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315249</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686871</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081092</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560246</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.556183571462</v>
+        <v>324.0021539847209</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586599</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>610.8663700188182</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315249</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686871</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502023</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091987</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560245</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1499110.143021233</v>
+        <v>1504049.405870264</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800624</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>194.7001067806289</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>206.0978190620145</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>233.6257157225927</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>142.7973342657374</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>101.780687729549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>148.3681250208876</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>172.0214414167019</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586903</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>226.9736586744965</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>70.12936392636001</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>3.726528083596326</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>138.9281674874325</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>124.6501923679393</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>61.75790661595705</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>256.3190686933509</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.5461099424051</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>207.2402939425158</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>207.5428010623604</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>43.04265191600489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>5.107731335946075</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>28.56876306769565</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>198.9975240274615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>268.6180137163284</v>
+        <v>182.8414065694712</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>31.27200878560247</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>114.159283726037</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2050.641472309061</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1719.57858496549</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1719.57858496549</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1346.11282670441</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1346.11282670441</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.9493689922781</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>519.9493689922781</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
         <v>369.8327295799424</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X4" t="n">
-        <v>519.9493689922781</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y4" t="n">
-        <v>519.9493689922781</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1722.185086336931</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C5" t="n">
-        <v>1353.22256939652</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D5" t="n">
-        <v>994.9568707897693</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E5" t="n">
-        <v>609.168618191525</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>198.1827134019174</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1722.185086336931</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>156.7517573047574</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378.1446555862789</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1446555862789</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>378.1446555862789</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>378.1446555862789</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>371.1991548370755</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>357.2757507756664</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2523.390059284182</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2304.755392256245</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2304.755392256245</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504007</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598701</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>667.7988452409106</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>498.8626623130037</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>348.746022900668</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5065,7 +5065,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.927113122792</v>
+        <v>416.2699138005286</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0893717830344</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V13" t="n">
-        <v>874.927113122792</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W13" t="n">
-        <v>874.927113122792</v>
+        <v>420.034083581939</v>
       </c>
       <c r="X13" t="n">
-        <v>874.927113122792</v>
+        <v>416.2699138005286</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.927113122792</v>
+        <v>416.2699138005286</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>410.8745301331628</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028587</v>
@@ -5673,7 +5673,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>517.9294177607301</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C22" t="n">
-        <v>517.9294177607301</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028587</v>
@@ -5910,7 +5910,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617344999</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X22" t="n">
-        <v>920.3704617344999</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y22" t="n">
-        <v>699.5778825909698</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514088</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.072954880832</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1436.5345467034</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>1147.405907916959</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="V25" t="n">
-        <v>892.7214197110717</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W25" t="n">
-        <v>892.7214197110717</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X25" t="n">
-        <v>892.7214197110717</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y25" t="n">
-        <v>892.7214197110717</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823761</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>584.4452354807079</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>415.509052552801</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6417,19 +6417,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>985.7136853104475</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>757.7241344124302</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>757.7241344124302</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6460,34 +6460,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.7516828383384</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W31" t="n">
-        <v>611.1927268121082</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X31" t="n">
-        <v>611.1927268121082</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y31" t="n">
-        <v>390.400147668578</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,19 +6700,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>604.4337416462789</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C34" t="n">
-        <v>435.497558718372</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D34" t="n">
-        <v>435.497558718372</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>287.5844651359789</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>140.6945176380686</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765186</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>786.0822064765186</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>786.0822064765186</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y34" t="n">
-        <v>786.0822064765186</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823761</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>692.5547804049818</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C37" t="n">
-        <v>692.5547804049818</v>
+        <v>272.964375390212</v>
       </c>
       <c r="D37" t="n">
-        <v>542.438140992646</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1075.21084526296</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.21084526296</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>1075.21084526296</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y37" t="n">
-        <v>874.2032452352215</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>413.0432218861031</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C40" t="n">
-        <v>244.1070389581962</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1116.509840133537</v>
+        <v>1314.22798109379</v>
       </c>
       <c r="V40" t="n">
-        <v>861.8253519276506</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="W40" t="n">
-        <v>861.8253519276506</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="X40" t="n">
-        <v>633.8358010296332</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y40" t="n">
-        <v>413.0432218861031</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>665.6859735286132</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>677.7114078547892</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>677.7114078547892</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>527.5947684424534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>527.5947684424534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>380.704820944543</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>212.5294992643636</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>898.5039869983193</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
-        <v>898.5039869983193</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>677.7114078547892</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050805</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>124.3400780863228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720712</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>116.9087390531963</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720712</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>97.11745717226782</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>221.9831273054408</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,19 +23706,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>147.3091849111448</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315956</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>23.96528065027302</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315956</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>159.7896544424322</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>29.91828370522643</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.285870239532215</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731852</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>79.28270439407524</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>18.16685432667674</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>123.4509165473727</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>213.4769220161487</v>
       </c>
     </row>
     <row r="35">
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120.0467099505167</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.58712932463325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>17.61933868224895</v>
+        <v>103.3959458291061</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>117.3434642326099</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>34.75454464149912</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238887</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238889</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>935011.5272238888</v>
+        <v>935011.5272238886</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>935011.5272238889</v>
+        <v>935011.5272238888</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="F2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="I2" t="n">
+        <v>469234.8716852502</v>
+      </c>
+      <c r="J2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="I2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852505</v>
-      </c>
       <c r="K2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852501</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.333471679274226e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="I4" t="n">
-        <v>36432.48351773395</v>
-      </c>
       <c r="J4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773392</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
     </row>
     <row r="5">
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.0780634095</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.5822165119</v>
+        <v>-363550.5822165122</v>
       </c>
       <c r="C6" t="n">
-        <v>226417.2969980323</v>
+        <v>226417.2969980326</v>
       </c>
       <c r="D6" t="n">
-        <v>226417.2969980323</v>
+        <v>226417.2969980318</v>
       </c>
       <c r="E6" t="n">
-        <v>-185319.565517818</v>
+        <v>-184442.4333840684</v>
       </c>
       <c r="F6" t="n">
-        <v>339840.4709590782</v>
+        <v>340717.6030928276</v>
       </c>
       <c r="G6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928276</v>
       </c>
       <c r="H6" t="n">
-        <v>339840.4709590781</v>
+        <v>340717.6030928276</v>
       </c>
       <c r="I6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928274</v>
       </c>
       <c r="J6" t="n">
-        <v>163417.2517664853</v>
+        <v>164294.3839002347</v>
       </c>
       <c r="K6" t="n">
-        <v>339840.4709590782</v>
+        <v>340717.6030928273</v>
       </c>
       <c r="L6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928274</v>
       </c>
       <c r="M6" t="n">
-        <v>205039.4557252411</v>
+        <v>205916.5878589905</v>
       </c>
       <c r="N6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928276</v>
       </c>
       <c r="O6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928276</v>
       </c>
       <c r="P6" t="n">
-        <v>339840.4709590783</v>
+        <v>340717.6030928275</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>84.06035595944962</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>56.52406072766036</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>192.4737869083824</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>19.61183632702262</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>148.3046543496691</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>270.9868357550575</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>175.5546477434695</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.394271392269616</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060683</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>59.54933966209452</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770699</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730072</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>410.0098272511729</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>274.915516674262</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415054</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>324.0021539847209</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415054</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
